--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snow\Desktop\webサービス作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{88E0BA6F-5387-453B-8C08-34FA6CD7828C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0DB548A-C8BF-6A48-8BA4-40A7F677333E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8400" windowHeight="7485" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -573,6 +573,26 @@
     <rPh sb="0" eb="2">
       <t>サイショ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fruit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -791,106 +811,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1282700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014838E1-47C2-B442-AFA3-C57052681D51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4394200" y="1320800"/>
-          <a:ext cx="431800" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2469EE65-185F-F64C-A9F8-0CF06CFA63A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4813300" y="1320800"/>
-          <a:ext cx="12700" cy="3721100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -970,59 +890,6 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2260600" y="838200"/>
           <a:ext cx="838200" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51C4843-4A09-8C47-8047-DF5D4188480A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4813300" y="5016500"/>
-          <a:ext cx="381000" cy="25400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1609,15 +1476,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2104,21 +1971,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
-  <dimension ref="B3:F29"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="19.5" thickBot="1">
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="19" thickBot="1">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -2134,21 +2009,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" ht="19" thickBot="1">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.5" thickBot="1">
+    <row r="6" spans="2:4">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
@@ -2164,8 +2037,11 @@
       <c r="B9" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19" thickBot="1">
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19.5" thickBot="1">
+    <row r="14" spans="2:4" ht="19" thickBot="1">
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
@@ -2226,12 +2102,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="19.5" thickBot="1">
+    <row r="19" spans="4:6" ht="19" thickBot="1">
       <c r="D19" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="19.5" thickBot="1">
+    <row r="20" spans="4:6">
+      <c r="D20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="19" thickBot="1">
       <c r="D21" t="s">
         <v>45</v>
       </c>
@@ -2247,7 +2131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="19.5" thickBot="1">
+    <row r="23" spans="4:6" ht="19" thickBot="1">
       <c r="D23" s="7" t="s">
         <v>31</v>
       </c>
@@ -2261,7 +2145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="19.5" thickBot="1">
+    <row r="25" spans="4:6" ht="19" thickBot="1">
       <c r="D25" s="3"/>
       <c r="F25" s="10" t="s">
         <v>72</v>

--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0DB548A-C8BF-6A48-8BA4-40A7F677333E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E0AFF73-B58B-354F-A935-49C3C225D8CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -206,13 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目ID</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>皮ID</t>
     <rPh sb="0" eb="1">
       <t>カワ</t>
@@ -305,13 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -370,14 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PARTNER_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ITEM_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ITEM_NAME</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,10 +368,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GROUP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SUBJECT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -415,27 +389,6 @@
   </si>
   <si>
     <t>I_or_C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録した項目を識別するためのID</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーが登録した相手のID</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー登録後、こちらで５つ仮項目を作成するが、ユーザによって項目が追加、または削除される</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクゴ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -592,7 +545,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item</t>
+    <t>QR画像の名前、拡張子のみを登録（機能側でQRコードが置かれる場所を指定）</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイコン画像の名前、拡張子のみを登録（機能側でアイコン画像が置かれる場所を指定）</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録後、こちらで５つ仮項目を作成するが、ユーザによって項目が追加、または削除される（IDとの複合キー）</t>
+    <rPh sb="0" eb="3">
+      <t>トウロクゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDと項目名の複合キーで指定される</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDを主キーとして指定される会員の実名を入力してもらう</t>
+    <rPh sb="0" eb="1">
+      <t>シュキー</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TEAM</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -638,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -735,13 +723,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +789,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,59 +1125,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F030D2F-0BE8-6C42-8428-F4086C06C281}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4419600" y="5067300"/>
-          <a:ext cx="774700" cy="165100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1474,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1523,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -1563,7 +1514,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1581,7 +1532,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1599,7 +1550,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1631,7 +1582,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -1639,7 +1590,7 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1649,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="12" t="s">
@@ -1657,310 +1608,282 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="12">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="12">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="12">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>69</v>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="12">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="12">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>56</v>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="12">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="12">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="12">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="12">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="12">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="12">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="12">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>67</v>
+      <c r="B26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="12">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="13">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1973,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1987,10 +1910,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19" thickBot="1">
@@ -2038,7 +1961,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" thickBot="1">
@@ -2046,12 +1969,12 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
@@ -2059,100 +1982,84 @@
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19" thickBot="1">
       <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="9"/>
       <c r="D15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="4:6" ht="19" thickBot="1">
       <c r="D19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="19" thickBot="1">
       <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" ht="19" thickBot="1">
-      <c r="D23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>47</v>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="3"/>
-      <c r="F24" s="8" t="s">
-        <v>48</v>
+      <c r="D24" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="4:6" ht="19" thickBot="1">
-      <c r="D25" s="3"/>
-      <c r="F25" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6">
-      <c r="D26" s="3"/>
+      <c r="D25" s="10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="3"/>

--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E0AFF73-B58B-354F-A935-49C3C225D8CD}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54D115F5-CC95-BF42-9644-2804763AE627}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -294,20 +294,6 @@
     <t>実テーブル</t>
     <rPh sb="0" eb="1">
       <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目内容</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,6 +567,24 @@
   </si>
   <si>
     <t>TEAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目ID</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -626,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -723,26 +727,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,9 +780,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,6 +1095,259 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958A16D0-6F9F-9142-9FEC-5451F9F3D2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445000" y="1295400"/>
+          <a:ext cx="431800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F51C40B-776B-784F-968F-0BD31D5B2E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="1295400"/>
+          <a:ext cx="12700" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0783045-CEE8-3C42-8A1E-4CC78D92FF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902200" y="4495800"/>
+          <a:ext cx="393700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6740677-C35F-F447-BEED-DEE3C7CBC527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445000" y="5181600"/>
+          <a:ext cx="431800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170C2239-0E00-7E48-8D0F-18EC416F80E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="4508500"/>
+          <a:ext cx="0" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1427,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1474,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
@@ -1514,7 +1755,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1532,7 +1773,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1550,7 +1791,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1582,7 +1823,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -1600,7 +1841,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="12" t="s">
@@ -1615,14 +1856,14 @@
         <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1633,14 +1874,14 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1651,14 +1892,14 @@
         <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1669,14 +1910,14 @@
         <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1684,17 +1925,17 @@
         <v>13</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1702,17 +1943,17 @@
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1723,14 +1964,14 @@
         <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1741,14 +1982,14 @@
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1759,14 +2000,14 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1777,14 +2018,14 @@
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1795,14 +2036,14 @@
         <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1813,14 +2054,14 @@
         <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1831,14 +2072,14 @@
         <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1849,14 +2090,14 @@
         <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1864,17 +2105,17 @@
         <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1896,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -1910,10 +2151,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19" thickBot="1">
@@ -1932,19 +2173,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="19" thickBot="1">
+    <row r="5" spans="2:4">
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" ht="19" thickBot="1">
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="6" t="s">
@@ -1961,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" thickBot="1">
@@ -2024,42 +2267,55 @@
       <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="4:6" ht="19" thickBot="1">
       <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="19" thickBot="1">
       <c r="D21" t="s">
         <v>44</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="16" t="s">
-        <v>45</v>
+      <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="19" thickBot="1">
+      <c r="D23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" ht="19" thickBot="1">
-      <c r="D25" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="9"/>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="3"/>

--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54D115F5-CC95-BF42-9644-2804763AE627}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5216248A-D7D2-AA4D-8A10-CCBC775D450E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -584,6 +584,17 @@
     <t>項目ID</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目テーブルへの外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>コウモクテーブル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -630,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -718,22 +729,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,12 +776,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1668,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -2119,12 +2115,22 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="12">
+        <v>24</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="12" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2137,7 +2143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5216248A-D7D2-AA4D-8A10-CCBC775D450E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46B0BF4F-141B-DF49-A225-1B0CBA693A68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -567,17 +567,6 @@
   </si>
   <si>
     <t>TEAM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目テーブル</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1163,8 +1152,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1185,8 +1174,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="1295400"/>
-          <a:ext cx="12700" cy="3200400"/>
+          <a:off x="4876800" y="1041400"/>
+          <a:ext cx="12700" cy="3454400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1212,15 +1201,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1234,9 +1223,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4902200" y="4495800"/>
-          <a:ext cx="393700" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4445000" y="5118100"/>
+          <a:ext cx="444500" cy="25400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1266,14 +1255,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1288,7 +1277,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445000" y="5181600"/>
+          <a:off x="4445000" y="1041400"/>
           <a:ext cx="431800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1664,7 +1653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2119,17 +2108,17 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2143,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2192,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2273,55 +2262,47 @@
       <c r="D18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="19" spans="4:6" ht="19" thickBot="1">
       <c r="D19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="4:6" ht="19" thickBot="1">
       <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="23" spans="4:6" ht="19" thickBot="1">
       <c r="D23" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="19" thickBot="1">
+      <c r="D26" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="4:6">
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="4:6">
-      <c r="D25" s="9"/>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="3"/>

--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{46B0BF4F-141B-DF49-A225-1B0CBA693A68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18C14A6A-80FD-DD44-B3AF-95F660D6C497}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -841,122 +841,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1435100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F8F156-3820-1240-B5E5-6E0B16B808D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2260600" y="838200"/>
-          <a:ext cx="838200" cy="203200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A37FB1-36D2-4649-BB7A-C76A3C141ECE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2298700" y="2438400"/>
-          <a:ext cx="787400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -971,7 +865,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2298700" y="2654300"/>
+          <a:off x="2311400" y="876300"/>
           <a:ext cx="431800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -998,9 +892,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -1021,8 +915,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2730500" y="2654300"/>
-          <a:ext cx="0" cy="2349500"/>
+          <a:off x="2717800" y="889000"/>
+          <a:ext cx="25400" cy="4114800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1333,6 +1227,159 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1D2E272-3F57-9745-A09F-17B5D13D7591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="1054100"/>
+          <a:ext cx="139700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27D7D94-41DC-8D41-8159-79CD5F048778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2971800" y="774700"/>
+          <a:ext cx="0" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE420C35-8407-B840-A37E-0D501179A5B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2730500" y="2438400"/>
+          <a:ext cx="393700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2133,7 +2180,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2212,32 +2259,26 @@
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="8" t="s">
-        <v>32</v>
+    <row r="12" spans="2:4" ht="19" thickBot="1">
+      <c r="B12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="19" thickBot="1">
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
+    <row r="14" spans="2:4">
       <c r="D14" s="6" t="s">
         <v>36</v>
       </c>

--- a/仕様書等/DB設計書.xlsx
+++ b/仕様書等/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izumin/Documents/GitHub/test/仕様書等/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18C14A6A-80FD-DD44-B3AF-95F660D6C497}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E023EE6-41C1-0A45-99DA-B8F57517C9D4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" activeTab="1" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22480" windowHeight="15080" xr2:uid="{3B556968-2316-4A29-8C46-B488BF2855AB}"/>
   </bookViews>
   <sheets>
     <sheet name="カラム一覧" sheetId="1" r:id="rId1"/>
@@ -463,13 +463,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>黙々と集中して作業をする方が得意か、人と話しながらの方が仕事が捗るか (0~4)</t>
-    <rPh sb="0" eb="1">
-      <t>モクモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社や所属してる組織の名前 (NULL可)</t>
     <rPh sb="0" eb="2">
       <t>カイシャ</t>
@@ -483,34 +476,6 @@
     <t>得意な教科、もしくは分野 (NULL可)</t>
     <rPh sb="0" eb="2">
       <t>トクイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パソコンでの入力が得意か、手書きでの記録が得意か (0~4)</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既に存在するものを改良する工夫が得意か、全く世の中にないアイデアを出すのが得意か (0~4)</t>
-    <rPh sb="0" eb="1">
-      <t>スデニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕事で人生を充実させたいか、仕事以外で人生を充実させたいか (0~4)</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最初のアイデアを出す方が好きか、出たアイデアを完成させる方が好きか (0~4)</t>
-    <rPh sb="0" eb="2">
-      <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -584,6 +549,41 @@
     <t>項目テーブルへの外部キー</t>
     <rPh sb="0" eb="2">
       <t>コウモクテーブル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黙々と集中して作業をする方が得意か、人と話しながらの方が仕事が捗るか (0~2)</t>
+    <rPh sb="0" eb="1">
+      <t>モクモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パソコンでの入力が得意か、手書きでの記録が得意か (0~2)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に存在するものを改良する工夫が得意か、全く世の中にないアイデアを出すのが得意か (0~2)</t>
+    <rPh sb="0" eb="1">
+      <t>スデニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事で人生を充実させたいか、仕事以外で人生を充実させたいか (0~2)</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初のアイデアを出す方が好きか、出たアイデアを完成させる方が好きか (0~2)</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1700,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831ABF70-76FA-4868-9E76-C36337104067}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2014,14 +2014,14 @@
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2155,17 +2155,17 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC625C-AB14-A04E-AF19-DF8AADA53D75}">
   <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
@@ -2193,10 +2193,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19" thickBot="1">
@@ -2228,7 +2228,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -2246,7 +2246,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19" thickBot="1">
@@ -2311,7 +2311,7 @@
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3"/>
     </row>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="23" spans="4:6" ht="19" thickBot="1">
       <c r="D23" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="4:6">
